--- a/ListasSarlaft/obj/Release/Package/PackageTmp/BDupdate/CambiosBD_V2.xlsx
+++ b/ListasSarlaft/obj/Release/Package/PackageTmp/BDupdate/CambiosBD_V2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sherlock - Fincomercio\Ver4.6-Fincomercio\ListasSarlaft\BDupdate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\Sherlock\Fuentes\Ver4.6-Fincomercio\ListasSarlaft\BDupdate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F69E81-4637-4A95-BA6C-9FC953397318}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8126B766-5AED-4B08-A624-CB5587A9055B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="191">
   <si>
     <t>Base de datos</t>
   </si>
@@ -5848,6 +5848,236 @@
 WHERE b.bitActivo = 1
 AND a.IdTipoDocumento = @IdTipoDocumento
 order by a.FechaModificacion desc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+/****** Object:  StoredProcedure [Procesos].[InsertarActualizarAcm]    Script Date: 4/10/2021 8:17:38 a. m. ******/
+SET ANSI_NULLS ON
+GO
+SET QUOTED_IDENTIFIER ON
+GO
+CREATE PROCEDURE [Procesos].[ActualizarAcm] @IdAcm int,
+@Proceso int,
+@MacroProceso int,
+@Cadenavalor int,
+@IdSubproceso int = NULL,
+@DescripcionNoConformidad varchar(1000) = NULL,
+@OrigenNoConformidad int = NULL,
+@CausasRaiz varchar(512) = NULL,
+@Codigo varchar(256) = NULL,
+@AnalisisCausa varbinary(max) = NULL,
+@Estado int,
+@VerificacionEficacia varchar(512),
+@Observaciones varchar(512),
+@UsuarioRegistra int = NULL,
+@UsuarioRevisa int = NULL,
+@UsuarioAprueba int = NULL,
+@UsuarioModifica int = NULL,
+@NombreArchivo varchar(256) = NULL,
+@Extension varchar(16) = NULL,
+@GrupoTrabajo varchar(512),
+@Resultado int OUTPUT
+AS
+BEGIN TRY
+  BEGIN TRANSACTION
+    SET NOCOUNT ON
+      UPDATE [Procesos].[Acm]
+      SET [IdProceso] = @Proceso,
+          [IdMacroProceso] = @MacroProceso,
+          [IdCadenaValor] = @Cadenavalor,
+		  [IdSubproceso] = @IdSubproceso,
+          [DescripcionNoConformidad] = @DescripcionNoConformidad,
+          [OrigenNoConformidad] = @OrigenNoConformidad,
+          [CausasRaiz] = @CausasRaiz,
+          [Codigo] = @Codigo,
+          [Estado] = @Estado,
+          [VerificacionEficacia] = @VerificacionEficacia,
+          [Observaciones] = @Observaciones,
+          [FechaModificacion] = GETDATE(),
+          [UsuarioModifica] = @UsuarioModifica
+      WHERE IdAcm = @IdAcm
+      SET @Resultado = @IdAcm
+    -- Valida si hay un archivo para actualizar
+    IF (@AnalisisCausa &lt;&gt; '')
+    BEGIN
+      UPDATE [Procesos].[Acm]
+      SET AnalisisCausa = @AnalisisCausa,
+          NombreArchivo = @NombreArchivo,
+          Extension = @Extension
+      WHERE IdAcm = @IdAcm
+    END
+    --Valida si se debe cerrar el ACM
+    IF (@Estado = 2)
+    BEGIN
+      UPDATE [Procesos].[Acm]
+      SET FechaCierre = GETDATE()
+      WHERE IdAcm = @IdAcm
+    END
+	-- Valida si el usuario revisa
+	IF(@UsuarioRevisa &lt;&gt; '')
+	BEGIN
+	 UPDATE [Procesos].[Acm]
+      SET UsuarioRevisa = @UsuarioRevisa
+      WHERE IdAcm = @IdAcm
+	END
+	-- Valida si el usuario aprueba
+	IF(@UsuarioAprueba &lt;&gt; '')
+	BEGIN
+	 UPDATE [Procesos].[Acm]
+      SET UsuarioAprueba = @UsuarioAprueba
+      WHERE IdAcm = @IdAcm
+	END
+	-- Valida si el usuario aprueba
+  COMMIT TRANSACTION
+  RETURN @Resultado
+END TRY
+BEGIN CATCH
+  ROLLBACK TRANSACTION
+  RETURN ERROR_MESSAGE()
+END CATCH</t>
+  </si>
+  <si>
+    <t>Calidad</t>
+  </si>
+  <si>
+    <t>[Procesos].[ActualizarAcm]</t>
+  </si>
+  <si>
+    <t>Eventos</t>
+  </si>
+  <si>
+    <t>ALTER TABLE Riesgos.Eventos ADD idClasificacionN3 numeric(18,0) null;</t>
+  </si>
+  <si>
+    <t>Riesgos.Eventos</t>
+  </si>
+  <si>
+    <t>Aletr Table</t>
+  </si>
+  <si>
+    <t>ClasificacionN3</t>
+  </si>
+  <si>
+    <t>Eventos.ClasificacionN3</t>
+  </si>
+  <si>
+    <t>/****** Object:  Table [Eventos].[ClasificacionN3]    Script Date: 29/11/2021 8:32:33 a. m. ******/
+SET ANSI_NULLS ON
+GO
+SET QUOTED_IDENTIFIER ON
+GO
+CREATE TABLE [Eventos].[ClasificacionN3](
+	[id] [numeric](18, 0) IDENTITY(1,1) NOT NULL,
+	[nombre] [nvarchar](250) NULL,
+	[descripcion] [nvarchar](450) NULL,
+	[fecha_registro] [datetime] NULL,
+	[usuario_registro] [numeric](18, 0) NULL,
+ CONSTRAINT [PK_ClasificacionN3] PRIMARY KEY CLUSTERED 
+(
+	[id] ASC
+)WITH (PAD_INDEX = OFF, STATISTICS_NORECOMPUTE = OFF, IGNORE_DUP_KEY = OFF, ALLOW_ROW_LOCKS = ON, ALLOW_PAGE_LOCKS = ON) ON [PRIMARY]
+) ON [PRIMARY]
+GO</t>
+  </si>
+  <si>
+    <t>/****** Object:  StoredProcedure [Eventos].[SeleccionarEvento]    Script Date: 29/11/2021 8:48:04 a. m. ******/
+SET ANSI_NULLS ON
+GO
+SET QUOTED_IDENTIFIER ON
+GO
+ALTER PROCEDURE [Eventos].[SeleccionarEvento] @CodigoEvento varchar(10)
+AS
+BEGIN
+  SELECT
+    a.IdEvento,
+    a.CodigoEvento,
+    a.IdEmpresa,
+    a.IdRegion,
+    a.IdPais,
+    a.IdDepartamento,
+    a.IdCiudad,
+    a.IdOficinaSucursal,
+    a.DetalleUbicacion,
+    a.DescripcionEvento,
+    a.IdServicio,
+    a.IdSubServicio,
+    SUBSTRING(CONVERT(varchar, a.FechaInicio, 120), 1, 10) AS FechaInicio,
+    SUBSTRING(a.HoraInicio, 1, 2) AS HorI,
+    SUBSTRING(a.HoraInicio, 4, 2) AS MinI,
+    SUBSTRING(a.HoraInicio, 7, 3) AS amI,
+    SUBSTRING(CONVERT(varchar, a.FechaFinalizacion, 120), 1, 10) AS FechaFinalizacion,
+    SUBSTRING(a.HoraFinalizacion, 1, 2) AS HorF,
+    SUBSTRING(a.HoraFinalizacion, 4, 2) AS MinF,
+    SUBSTRING(a.HoraFinalizacion, 7, 3) AS amF,
+    SUBSTRING(CONVERT(varchar, a.FechaDescubrimiento, 120), 1, 10) AS FechaDescubrimiento,
+    SUBSTRING(a.HoraDescubrimiento, 1, 2) AS HorD,
+    SUBSTRING(a.HoraDescubrimiento, 4, 2) AS MinD,
+    SUBSTRING(a.HoraDescubrimiento, 7, 3) AS amD,
+    a.IdCanal,
+    a.IdGeneraEvento,
+    a.GeneraEvento,
+    j1.NombreResponsable AS GeneradorEvento,
+    a.cuantiaperdida,
+    SUBSTRING(CONVERT(varchar, a.FechaEvento, 120), 1, 10) AS FechaEvento,
+    u.Usuario,
+    a.IdCadenaValor,
+    a.IdMacroproceso,
+    a.IdProceso,
+    a.IdSubProceso,
+    a.IdActividad,
+    a.ResponsableEvento,
+    j2.NombreResponsable AS ResponsableSolucion,
+    a.IdClase,
+    b.Descripcion AS NombreClaseEvento,
+    a.IdSubClase,
+    c.NombreTipoPerdidaEvento,
+    a.AfectaContinudad,
+    a.IdEstado,
+    a.Observaciones,
+    a.ResponsableContabilidad,
+    j3.NombreResponsable AS NombreResContabilidad,
+    a.CuentaPUC,
+    a.CuentaOrden,
+    a.CuentaPerdida,
+    a.Moneda1,
+    a.TasaCambio1,
+    a.ValorPesos1,
+    a.ValorRecuperadoTotal,
+    a.Moneda2,
+    a.TasaCambio2,
+    a.ValorPesos2,
+    a.ValorRecuperadoSeguro,
+    a.ValorPesos3,
+    a.Recuperacion,
+    a.ValorRecuperacion,
+    a.IdLineaProceso,
+    a.IdSubLineaProceso,
+    a.MasLineas,
+    a.NomGeneradorEvento,
+    SUBSTRING(CONVERT(varchar, a.FechaContabilidad, 120), 1, 10) AS FechaContab,
+    SUBSTRING(a.HoraContabilidad, 1, 2) AS HoraContab,
+    SUBSTRING(a.HoraContabilidad, 4, 2) AS MinContab,
+    SUBSTRING(a.HoraContabilidad, 7, 3) AS amContab,
+	u.IdJerarquia
+	, a.idClasificacionN3
+  FROM Riesgos.Eventos a
+  LEFT JOIN Eventos.Clase b
+    ON a.IdClase = b.IdClase
+  LEFT JOIN Parametrizacion.TipoPerdidaEvento c
+    ON a.IdTipoPerdidaEvento = c.IdTipoPerdidaEvento
+  LEFT JOIN Listas.Usuarios u
+    ON a.IdUsuario = u.IdUsuario
+  LEFT JOIN Parametrizacion.DetalleJerarquiaOrg j1
+    ON j1.idHijo = a.GeneraEvento
+  LEFT JOIN Parametrizacion.DetalleJerarquiaOrg j2
+    ON j2.idHijo = a.ResponsableEvento
+  LEFT JOIN Parametrizacion.DetalleJerarquiaOrg j3
+    ON a.ResponsableContabilidad = j3.idHijo
+  WHERE (a.CodigoEvento = @CodigoEvento)
+END</t>
+  </si>
+  <si>
+    <t>[Eventos].[SeleccionarEvento]</t>
   </si>
 </sst>
 </file>
@@ -6314,8 +6544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E79" sqref="E79"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I80" sqref="I80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8183,44 +8413,148 @@
       </c>
     </row>
     <row r="80" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E80" s="9"/>
-    </row>
-    <row r="81" spans="5:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E81" s="9"/>
-    </row>
-    <row r="82" spans="5:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E82" s="9"/>
-    </row>
-    <row r="83" spans="5:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E83" s="9"/>
-    </row>
-    <row r="84" spans="5:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>176</v>
+      </c>
+      <c r="B80" t="s">
+        <v>180</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D80" t="s">
+        <v>42</v>
+      </c>
+      <c r="E80" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="F80" t="s">
+        <v>31</v>
+      </c>
+      <c r="G80">
+        <v>2</v>
+      </c>
+      <c r="H80" t="s">
+        <v>165</v>
+      </c>
+      <c r="I80" s="12">
+        <v>44473</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>176</v>
+      </c>
+      <c r="B81" t="s">
+        <v>182</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D81" t="s">
+        <v>185</v>
+      </c>
+      <c r="E81" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="F81" t="s">
+        <v>31</v>
+      </c>
+      <c r="G81">
+        <v>3</v>
+      </c>
+      <c r="H81" t="s">
+        <v>165</v>
+      </c>
+      <c r="I81" s="12">
+        <v>44528</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>176</v>
+      </c>
+      <c r="B82" t="s">
+        <v>186</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D82" t="s">
+        <v>10</v>
+      </c>
+      <c r="E82" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="F82" t="s">
+        <v>31</v>
+      </c>
+      <c r="G82">
+        <v>4</v>
+      </c>
+      <c r="H82" t="s">
+        <v>165</v>
+      </c>
+      <c r="I82" s="12">
+        <v>44528</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>176</v>
+      </c>
+      <c r="B83" t="s">
+        <v>182</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D83" t="s">
+        <v>153</v>
+      </c>
+      <c r="E83" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="F83" t="s">
+        <v>31</v>
+      </c>
+      <c r="G83">
+        <v>5</v>
+      </c>
+      <c r="H83" t="s">
+        <v>165</v>
+      </c>
+      <c r="I83" s="12">
+        <v>44528</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E84" s="9"/>
     </row>
-    <row r="85" spans="5:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E85" s="9"/>
     </row>
-    <row r="86" spans="5:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E86" s="9"/>
     </row>
-    <row r="87" spans="5:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E87" s="9"/>
     </row>
-    <row r="88" spans="5:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" spans="5:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E89" s="9"/>
     </row>
-    <row r="90" spans="5:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" spans="5:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E91" s="9"/>
     </row>
-    <row r="93" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E93" s="9"/>
     </row>
-    <row r="95" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E95" s="9"/>
     </row>
-    <row r="96" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E96" s="9"/>
     </row>
     <row r="97" spans="5:5" x14ac:dyDescent="0.25">
